--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail11 Features.xlsx
@@ -4858,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,29 +4869,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4912,115 +4910,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5037,72 +5025,66 @@
         <v>2.858547441152831e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.868268013934039</v>
+        <v>1.922699706777988e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.56179749713226</v>
+        <v>3.240195762560957e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.922699706777988e-07</v>
+        <v>-0.108117347799206</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.240195762560957e-07</v>
+        <v>0.3293798612494502</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.108117347799206</v>
+        <v>0.1198929145637034</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3293798612494502</v>
+        <v>1.90578332617658</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1198929145637034</v>
+        <v>3.818852249148989</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.947168816927879</v>
+        <v>10.45604011856278</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.818852249148989</v>
+        <v>1.044615553907441e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10.45604011856278</v>
+        <v>306838999948.6436</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.044615553907441e-19</v>
+        <v>3.933177220644821e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>306838999948.6436</v>
+        <v>9835.073395881382</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.933177220644821e-10</v>
+        <v>2.695120053438211e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9835.073395881382</v>
+        <v>5.498024165055338</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.695120053438211e-06</v>
+        <v>2.276445917445493</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5.498024165055338</v>
+        <v>8.146881590185095e-05</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.276445917445493</v>
+        <v>8.947864308739948</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>8.146881590185095e-05</v>
+        <v>0.965986534400129</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.947864308739948</v>
+        <v>0.7179906419188825</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.965986534400129</v>
+        <v>718</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7179906419188825</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>718</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>21.58205262724917</v>
       </c>
     </row>
@@ -5117,72 +5099,66 @@
         <v>2.056801069454153e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.870129243175332</v>
+        <v>1.400176285763819e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.70101255293386</v>
+        <v>3.213906030361076e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.400176285763819e-07</v>
+        <v>-0.1078874717717159</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.213906030361076e-07</v>
+        <v>0.3343540776769488</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1078874717717159</v>
+        <v>0.1231305216164004</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3343540776769488</v>
+        <v>1.913374229210949</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1231305216164004</v>
+        <v>3.666323032887963</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.953589412386828</v>
+        <v>10.33434018606185</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.666323032887963</v>
+        <v>1.069363761591827e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>10.33434018606185</v>
+        <v>310890502915.7672</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.069363761591827e-19</v>
+        <v>3.887617681774496e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>310890502915.7672</v>
+        <v>10335.71138491467</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.887617681774496e-10</v>
+        <v>3.076845367205206e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10335.71138491467</v>
+        <v>5.836359895467087</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.076845367205206e-06</v>
+        <v>2.100342507437563</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>5.836359895467087</v>
+        <v>0.0001048068816722528</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.100342507437563</v>
+        <v>8.91948728400043</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001048068816722528</v>
+        <v>0.9649446488272291</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.91948728400043</v>
+        <v>0.6760107834207353</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9649446488272291</v>
+        <v>738</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6760107834207353</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>738</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>21.69322586337143</v>
       </c>
     </row>
@@ -5197,72 +5173,66 @@
         <v>1.475421135299941e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.839476631471625</v>
+        <v>1.018980196436294e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15.70904039295856</v>
+        <v>3.195083563079736e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.018980196436294e-07</v>
+        <v>-0.1073161051042339</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.195083563079736e-07</v>
+        <v>0.3404493505560848</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1073161051042339</v>
+        <v>0.1271104969002516</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3404493505560848</v>
+        <v>1.914078180616227</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1271104969002516</v>
+        <v>3.610635945429432</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.955930997274734</v>
+        <v>10.64933973710823</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.610635945429432</v>
+        <v>1.007037412734118e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>10.64933973710823</v>
+        <v>321401122631.7767</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.007037412734118e-19</v>
+        <v>3.750413242441711e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>321401122631.7767</v>
+        <v>10402.56370864797</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.750413242441711e-10</v>
+        <v>3.276411066366804e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10402.56370864797</v>
+        <v>6.92392953106817</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3.276411066366804e-06</v>
+        <v>1.880596120371919</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.92392953106817</v>
+        <v>0.0001570737681458641</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.880596120371919</v>
+        <v>8.946859393807014</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0001570737681458641</v>
+        <v>0.9637781674986249</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.946859393807014</v>
+        <v>0.6795797855004914</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9637781674986249</v>
+        <v>742</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6795797855004914</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>21.29445350494597</v>
       </c>
     </row>
@@ -5277,72 +5247,66 @@
         <v>1.056568479360924e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.731772240597231</v>
+        <v>7.410720421759015e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>15.35537854957511</v>
+        <v>3.181704318202278e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.410720421759015e-08</v>
+        <v>-0.106021664967929</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.181704318202278e-07</v>
+        <v>0.3473930863861176</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.106021664967929</v>
+        <v>0.1315993733433316</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3473930863861176</v>
+        <v>1.90911787382997</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1315993733433316</v>
+        <v>3.45157204871907</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.952320658272307</v>
+        <v>10.63212685222097</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.45157204871907</v>
+        <v>1.010300739208925e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>10.63212685222097</v>
+        <v>320226834367.2985</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.010300739208925e-19</v>
+        <v>3.761965085246215e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>320226834367.2985</v>
+        <v>10360.15170733708</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.761965085246215e-10</v>
+        <v>2.984302054550552e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10360.15170733708</v>
+        <v>8.193129798335539</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.984302054550552e-06</v>
+        <v>1.721779081494043</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.193129798335539</v>
+        <v>0.0002003283657921982</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.721779081494043</v>
+        <v>8.985552888550274</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0002003283657921982</v>
+        <v>0.9631703768892222</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.985552888550274</v>
+        <v>0.6629019385190356</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9631703768892222</v>
+        <v>732</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6629019385190356</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>732</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>21.04000901902623</v>
       </c>
     </row>
@@ -5357,72 +5321,66 @@
         <v>7.586154992801529e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.46035724313451</v>
+        <v>5.3868753848431e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>14.18703745705367</v>
+        <v>3.172288992193718e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.3868753848431e-08</v>
+        <v>-0.1032324862148426</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.172288992193718e-07</v>
+        <v>0.3540220550321753</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1032324862148426</v>
+        <v>0.1356564405667042</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3540220550321753</v>
+        <v>1.909269490147357</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1356564405667042</v>
+        <v>4.008916301997723</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.953555751793044</v>
+        <v>8.495212679633864</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.008916301997723</v>
+        <v>9.357850239588987e-20</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.495212679633864</v>
+        <v>337503282585.6914</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.357850239588987e-20</v>
+        <v>3.560209812181273e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>337503282585.6914</v>
+        <v>10659.38363567094</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.560209812181273e-10</v>
+        <v>2.543909166827286e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10659.38363567094</v>
+        <v>7.95660984541926</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.543909166827286e-06</v>
+        <v>1.802808225768058</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.95660984541926</v>
+        <v>0.0001610488863169552</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.802808225768058</v>
+        <v>9.028339274688619</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001610488863169552</v>
+        <v>0.9632468139671442</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>9.028339274688619</v>
+        <v>0.6488470787245391</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9632468139671442</v>
+        <v>725</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6488470787245391</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>725</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>21.30847923262041</v>
       </c>
     </row>
@@ -5437,72 +5395,66 @@
         <v>5.518746234917677e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.888855655830771</v>
+        <v>3.913613848352197e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>11.52223691783497</v>
+        <v>3.165756547425628e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.913613848352197e-08</v>
+        <v>-0.09750462867638542</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.165756547425628e-07</v>
+        <v>0.3569168187636529</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.09750462867638542</v>
+        <v>0.1365637815756327</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3569168187636529</v>
+        <v>1.904500874477234</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1365637815756327</v>
+        <v>4.087545406144096</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.952087042427715</v>
+        <v>7.328247419029667</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.087545406144096</v>
+        <v>8.650709589261649e-20</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.328247419029667</v>
+        <v>348339042598.4324</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.650709589261649e-20</v>
+        <v>3.43342111767811e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>348339042598.4324</v>
+        <v>10496.77867999972</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.43342111767811e-10</v>
+        <v>2.402993706464152e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10496.77867999972</v>
+        <v>6.420665725127698</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.402993706464152e-06</v>
+        <v>2.149528415471999</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.420665725127698</v>
+        <v>9.906329144356221e-05</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.149528415471999</v>
+        <v>9.038310280319955</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>9.906329144356221e-05</v>
+        <v>0.9611085549532552</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>9.038310280319955</v>
+        <v>0.6251340874266025</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9611085549532552</v>
+        <v>720</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6251340874266025</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>720</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>21.76587604275647</v>
       </c>
     </row>
@@ -5517,72 +5469,66 @@
         <v>4.153154048041664e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.919137173292103</v>
+        <v>2.841102006707868e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7.07191087946245</v>
+        <v>3.161319953420673e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.841102006707868e-08</v>
+        <v>-0.08667236376777938</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.161319953420673e-07</v>
+        <v>0.3490808145081642</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.08667236376777938</v>
+        <v>0.1290580320932131</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3490808145081642</v>
+        <v>1.900085416725105</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1290580320932131</v>
+        <v>4.465367400055491</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.945509840600846</v>
+        <v>7.266959895571532</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>4.465367400055491</v>
+        <v>8.797240263004337e-20</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>7.266959895571532</v>
+        <v>342480576122.991</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.797240263004337e-20</v>
+        <v>3.480876509686993e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>342480576122.991</v>
+        <v>10318.54218509809</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.480876509686993e-10</v>
+        <v>2.544670879538886e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10318.54218509809</v>
+        <v>5.60108944412479</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.544670879538886e-06</v>
+        <v>2.266058122917152</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>5.60108944412479</v>
+        <v>7.983193130205953e-05</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.266058122917152</v>
+        <v>9.016892647336412</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>7.983193130205953e-05</v>
+        <v>0.9613791894101925</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>9.016892647336412</v>
+        <v>0.6438546812979357</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9613791894101925</v>
+        <v>713</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6438546812979357</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>713</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>21.78760687385455</v>
       </c>
     </row>
@@ -5597,72 +5543,66 @@
         <v>3.32822697099944e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7427007833119893</v>
+        <v>2.06119174481638e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.262182795589844</v>
+        <v>3.158406464297866e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.06119174481638e-08</v>
+        <v>-0.06926714970909197</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.158406464297866e-07</v>
+        <v>0.3226961249658668</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06926714970909197</v>
+        <v>0.1086740161085435</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3226961249658668</v>
+        <v>1.901862157935767</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1086740161085435</v>
+        <v>4.644027036365585</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.943809200018308</v>
+        <v>7.15912514795246</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>4.644027036365585</v>
+        <v>9.064254094596351e-20</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>7.15912514795246</v>
+        <v>334056559085.5772</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.064254094596351e-20</v>
+        <v>3.570664605137122e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>334056559085.5772</v>
+        <v>10115.1441960929</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.570664605137122e-10</v>
+        <v>2.616181366902388e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10115.1441960929</v>
+        <v>6.279707189931057</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2.616181366902388e-06</v>
+        <v>2.058691434826521</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.279707189931057</v>
+        <v>0.0001031683859290137</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.058691434826521</v>
+        <v>9.036516826884906</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0001031683859290137</v>
+        <v>0.9621572357717441</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>9.036516826884906</v>
+        <v>0.6376057660184012</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9621572357717441</v>
+        <v>712</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6376057660184012</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>712</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>21.05473137168512</v>
       </c>
     </row>
@@ -5677,72 +5617,66 @@
         <v>2.896692146605336e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1364750854291196</v>
+        <v>1.492652056254567e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5456218759677034</v>
+        <v>3.156600925180345e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.492652056254567e-08</v>
+        <v>-0.04701964170534804</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.156600925180345e-07</v>
+        <v>0.276952297467025</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04701964170534804</v>
+        <v>0.07873250722152395</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.276952297467025</v>
+        <v>1.898061086507396</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.07873250722152395</v>
+        <v>4.625274443448872</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.942172516574483</v>
+        <v>7.056000327896431</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.625274443448872</v>
+        <v>9.33114193538061e-20</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>7.056000327896431</v>
+        <v>326752008053.1151</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.33114193538061e-20</v>
+        <v>3.655579326785722e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>326752008053.1151</v>
+        <v>9962.568624454852</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.655579326785722e-10</v>
+        <v>2.637369970691366e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>9962.568624454852</v>
+        <v>7.632647238826805</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>2.637369970691366e-06</v>
+        <v>1.872687376663848</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.632647238826805</v>
+        <v>0.0001536460638064317</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.872687376663848</v>
+        <v>9.046070110888278</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0001536460638064317</v>
+        <v>0.9615102992513098</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>9.046070110888278</v>
+        <v>0.622346494786822</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9615102992513098</v>
+        <v>689</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.622346494786822</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>689</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>20.31161381823287</v>
       </c>
     </row>
@@ -5757,72 +5691,66 @@
         <v>2.71471754903083e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4943196137272184</v>
+        <v>1.07818954015007e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.282328016918118</v>
+        <v>3.155603764837418e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.07818954015007e-08</v>
+        <v>-0.02480386074510429</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.155603764837418e-07</v>
+        <v>0.223528238632253</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02480386074510429</v>
+        <v>0.05047043764420187</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.223528238632253</v>
+        <v>1.905845281386685</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05047043764420187</v>
+        <v>4.093409101832512</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.946632229345561</v>
+        <v>6.900309869304542</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>4.093409101832512</v>
+        <v>9.756966017853656e-20</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.900309869304542</v>
+        <v>317861472617.2018</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>9.756966017853656e-20</v>
+        <v>3.763093358924736e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>317861472617.2018</v>
+        <v>9858.039967933126</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.763093358924736e-10</v>
+        <v>2.536154150360085e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>9858.039967933126</v>
+        <v>7.904571590725709</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2.536154150360085e-06</v>
+        <v>1.720364168031955</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.904571590725709</v>
+        <v>0.0001584646228171044</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.720364168031955</v>
+        <v>9.027006554507636</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0001584646228171044</v>
+        <v>0.9623341458261326</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>9.027006554507636</v>
+        <v>0.6377051612812947</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9623341458261326</v>
+        <v>669</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6377051612812947</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>669</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>20.42917609891571</v>
       </c>
     </row>
@@ -5837,72 +5765,66 @@
         <v>2.662691246258288e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.558913298262389</v>
+        <v>7.760061886853046e-09</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.338625257551241</v>
+        <v>3.155198026437266e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.760061886853046e-09</v>
+        <v>-0.006291404087105427</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.155198026437266e-07</v>
+        <v>0.1756029588841879</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.006291404087105427</v>
+        <v>0.03081571352529027</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1756029588841879</v>
+        <v>1.90722971653539</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03081571352529027</v>
+        <v>4.573075229922167</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.946360908085653</v>
+        <v>7.49631909406274</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.573075229922167</v>
+        <v>1.083798944840942e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>7.49631909406274</v>
+        <v>286334675630.5735</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.083798944840942e-19</v>
+        <v>4.185071537017272e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>286334675630.5735</v>
+        <v>8885.801635262091</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.185071537017272e-10</v>
+        <v>2.769933475743121e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>8885.801635262091</v>
+        <v>7.871589491753078</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.769933475743121e-06</v>
+        <v>1.671356545844118</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.871589491753078</v>
+        <v>0.0001716303995501388</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.671356545844118</v>
+        <v>8.973955215318229</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0001716303995501388</v>
+        <v>0.9610404253354113</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.973955215318229</v>
+        <v>0.6378517673002085</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9610404253354113</v>
+        <v>628</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6378517673002085</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>20.9097849369748</v>
       </c>
     </row>
@@ -5917,72 +5839,66 @@
         <v>2.663640835206417e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.5618355574868497</v>
+        <v>7.133350969842574e-09</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.339769732182347</v>
+        <v>3.155228889318558e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.133350969842574e-09</v>
+        <v>0.007826316663835011</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.155228889318558e-07</v>
+        <v>0.1385801003917219</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.007826316663835011</v>
+        <v>0.01923268933287674</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1385801003917219</v>
+        <v>1.913935471688304</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01923268933287674</v>
+        <v>3.933674111291141</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.951951064067074</v>
+        <v>8.703963269865152</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.933674111291141</v>
+        <v>1.18432672584256e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.703963269865152</v>
+        <v>275922760773.1215</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.18432672584256e-19</v>
+        <v>4.357130341922487e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>275922760773.1215</v>
+        <v>9016.67847160225</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.357130341922487e-10</v>
+        <v>3.161936134616998e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9016.67847160225</v>
+        <v>8.434383618446446</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.161936134616998e-06</v>
+        <v>1.595682920743153</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.434383618446446</v>
+        <v>0.0002249364277386643</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.595682920743153</v>
+        <v>8.908652504922815</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0002249364277386643</v>
+        <v>0.9610136103070982</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.908652504922815</v>
+        <v>0.6430407718451165</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9610136103070982</v>
+        <v>622</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6430407718451165</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>622</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>21.453621499845</v>
       </c>
     </row>
@@ -5997,72 +5913,66 @@
         <v>2.677179295219437e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.5848145658935791</v>
+        <v>7.133350969842574e-09</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.335927577748511</v>
+        <v>3.155588010185729e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.133350969842574e-09</v>
+        <v>0.01848267870334364</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.155588010185729e-07</v>
+        <v>0.1113069755425059</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01848267870334364</v>
+        <v>0.01271297615116696</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1113069755425059</v>
+        <v>1.918005168232708</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01271297615116696</v>
+        <v>4.37804844283834</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.952642798832694</v>
+        <v>8.614607582508318</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.37804844283834</v>
+        <v>1.209023190199737e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.614607582508318</v>
+        <v>270593071663.602</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.209023190199737e-19</v>
+        <v>4.447796311395486e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>270593071663.602</v>
+        <v>8852.541601328379</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.447796311395486e-10</v>
+        <v>3.899752737964543e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8852.541601328379</v>
+        <v>9.378780359051405</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>3.899752737964543e-06</v>
+        <v>1.496535342400839</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.378780359051405</v>
+        <v>0.0003430281824462506</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.496535342400839</v>
+        <v>8.859279610868422</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0003430281824462506</v>
+        <v>0.9617589069758123</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.859279610868422</v>
+        <v>0.6736403936569941</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9617589069758123</v>
+        <v>598</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6736403936569941</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>598</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>21.30110115955017</v>
       </c>
     </row>
@@ -6077,72 +5987,66 @@
         <v>2.684743956043802e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.6356110515814971</v>
+        <v>7.133350969842574e-09</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.294326718115161</v>
+        <v>3.156197281356934e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.133350969842574e-09</v>
+        <v>0.02651442728679463</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.156197281356934e-07</v>
+        <v>0.09284340829419931</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.02651442728679463</v>
+        <v>0.009313740142617174</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09284340829419931</v>
+        <v>1.922424823030743</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009313740142617174</v>
+        <v>4.084740208431847</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.954606316942624</v>
+        <v>8.683131726050918</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4.084740208431847</v>
+        <v>1.190016135875272e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.683131726050918</v>
+        <v>270783997628.0045</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.190016135875272e-19</v>
+        <v>4.447518239939887e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>270783997628.0045</v>
+        <v>8725.67114584585</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.447518239939887e-10</v>
+        <v>4.411177830895871e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8725.67114584585</v>
+        <v>9.840527438666314</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>4.411177830895871e-06</v>
+        <v>1.459467326105587</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.840527438666314</v>
+        <v>0.0004271607294051429</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.459467326105587</v>
+        <v>8.8374258931531</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0004271607294051429</v>
+        <v>0.9621032113920496</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.8374258931531</v>
+        <v>0.6628341559419969</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9621032113920496</v>
+        <v>582</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6628341559419969</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>582</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>20.68206302643873</v>
       </c>
     </row>
@@ -6157,72 +6061,66 @@
         <v>2.679352083759557e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.7044118758426947</v>
+        <v>7.133350969842574e-09</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.207511665806893</v>
+        <v>3.156995462217708e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.133350969842574e-09</v>
+        <v>0.03271086796186327</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.156995462217708e-07</v>
+        <v>0.08107361117759436</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03271086796186327</v>
+        <v>0.007637949034398806</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08107361117759436</v>
+        <v>1.928461337592971</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.007637949034398806</v>
+        <v>4.117884157965316</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.961130746899662</v>
+        <v>8.675995468750914</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.117884157965316</v>
+        <v>1.191974586391456e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.675995468750914</v>
+        <v>272557697005.8477</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.191974586391456e-19</v>
+        <v>4.418296479726135e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>272557697005.8477</v>
+        <v>8854.904833249913</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.418296479726135e-10</v>
+        <v>3.888913085526586e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8854.904833249913</v>
+        <v>9.321313523128483</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>3.888913085526586e-06</v>
+        <v>1.511920894871224</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.321313523128483</v>
+        <v>0.0003378955471344993</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.511920894871224</v>
+        <v>8.860276816801919</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0003378955471344993</v>
+        <v>0.9619437744168579</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.860276816801919</v>
+        <v>0.6180212788381352</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9619437744168579</v>
+        <v>599</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6180212788381352</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>599</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>20.40667109170757</v>
       </c>
     </row>
@@ -6237,72 +6135,66 @@
         <v>2.659063711653957e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.7824864136100002</v>
+        <v>7.248207106446071e-09</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.082111276716637</v>
+        <v>3.157940334923127e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.248207106446071e-09</v>
+        <v>0.0379193223910804</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.157940334923127e-07</v>
+        <v>0.0733491918350843</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0379193223910804</v>
+        <v>0.006815019476716161</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0733491918350843</v>
+        <v>1.929459656399586</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.006815019476716161</v>
+        <v>4.339433571259767</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.962422509647284</v>
+        <v>8.545566728676915</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.339433571259767</v>
+        <v>1.228637848206862e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.545566728676915</v>
+        <v>262086346268.6586</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.228637848206862e-19</v>
+        <v>4.594853264716214e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>262086346268.6586</v>
+        <v>8439.421587855231</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.594853264716214e-10</v>
+        <v>3.090821327878305e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8439.421587855231</v>
+        <v>8.123298912093516</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.090821327878305e-06</v>
+        <v>1.653343359117073</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.123298912093516</v>
+        <v>0.0002039570720869193</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.653343359117073</v>
+        <v>8.903662917740604</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0002039570720869193</v>
+        <v>0.9617719876790966</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.903662917740604</v>
+        <v>0.6229390879782301</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9617719876790966</v>
+        <v>573</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6229390879782301</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>20.75289943724812</v>
       </c>
     </row>
@@ -6317,72 +6209,66 @@
         <v>2.623893395855055e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.8639181619994024</v>
+        <v>7.433518853955864e-09</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9273508210743939</v>
+        <v>3.159006543691326e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.433518853955864e-09</v>
+        <v>0.04268979140458681</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.159006543691326e-07</v>
+        <v>0.06846421420231669</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04268979140458681</v>
+        <v>0.006508040349578468</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.06846421420231669</v>
+        <v>1.924445126000719</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.006508040349578468</v>
+        <v>3.890873379213787</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.958408869809265</v>
+        <v>8.694632147857121</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.890873379213787</v>
+        <v>1.186870140453809e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.694632147857121</v>
+        <v>262932528462.5343</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.186870140453809e-19</v>
+        <v>4.568811079316228e-10</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>262932528462.5343</v>
+        <v>8205.250409281089</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.568811079316228e-10</v>
+        <v>2.794940447830961e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8205.250409281089</v>
+        <v>7.658387899737625</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>2.794940447830961e-06</v>
+        <v>1.780690365377821</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.658387899737625</v>
+        <v>0.0001639257873092371</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.780690365377821</v>
+        <v>8.913171177460143</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0001639257873092371</v>
+        <v>0.9631819432366328</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.913171177460143</v>
+        <v>0.648104172407674</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9631819432366328</v>
+        <v>543</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.648104172407674</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>21.41046890062651</v>
       </c>
     </row>
@@ -6397,72 +6283,66 @@
         <v>2.574844139424631e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.9444042347414254</v>
+        <v>7.629358210325292e-09</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.7526550569274826</v>
+        <v>3.160173948507162e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.629358210325292e-09</v>
+        <v>0.04699736986792519</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.160173948507162e-07</v>
+        <v>0.06592436840930314</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04699736986792519</v>
+        <v>0.006553970710665573</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.06592436840930314</v>
+        <v>1.917635233316071</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.006553970710665573</v>
+        <v>3.856290126777167</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.953685475614764</v>
+        <v>8.68473573414297</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.856290126777167</v>
+        <v>1.189576601662682e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.68473573414297</v>
+        <v>261248994131.7928</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.189576601662682e-19</v>
+        <v>4.581215457870686e-10</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>261248994131.7928</v>
+        <v>8118.983657694102</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.581215457870686e-10</v>
+        <v>3.100829890171344e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>8118.983657694102</v>
+        <v>7.892308252150946</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>3.100829890171344e-06</v>
+        <v>1.78045922188037</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.892308252150946</v>
+        <v>0.0001931461342340652</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.78045922188037</v>
+        <v>8.894536797879118</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0001931461342340652</v>
+        <v>0.9627730945366564</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.894536797879118</v>
+        <v>0.6753468544760759</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9627730945366564</v>
+        <v>536</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6753468544760759</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>536</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>21.3798768412631</v>
       </c>
     </row>
@@ -6477,72 +6357,66 @@
         <v>2.513342431757942e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.021071589605063</v>
+        <v>7.812206736634561e-09</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.566344187498383</v>
+        <v>3.161419343055148e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.812206736634561e-09</v>
+        <v>0.05080624064581912</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.161419343055148e-07</v>
+        <v>0.06525645456673231</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.05080624064581912</v>
+        <v>0.006839410202760712</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.06525645456673231</v>
+        <v>1.925501341220665</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.006839410202760712</v>
+        <v>4.247374534136723</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.958852073575694</v>
+        <v>8.551039578552309</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>4.247374534136723</v>
+        <v>1.227065642013218e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.551039578552309</v>
+        <v>255604934446.4592</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.227065642013218e-19</v>
+        <v>4.71698079254182e-10</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>255604934446.4592</v>
+        <v>8016.896249149519</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.71698079254182e-10</v>
+        <v>3.872078877191938e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>8016.896249149519</v>
+        <v>8.356536147814685</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>3.872078877191938e-06</v>
+        <v>1.816726247969727</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.356536147814685</v>
+        <v>0.0002703938365491676</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.816726247969727</v>
+        <v>8.820341050005506</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0002703938365491676</v>
+        <v>0.9643446957953923</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.820341050005506</v>
+        <v>0.6704444206772664</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9643446957953923</v>
+        <v>538</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.6704444206772664</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>538</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>20.45862333315849</v>
       </c>
     </row>
@@ -6557,72 +6431,66 @@
         <v>2.440570509554092e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.091877431195515</v>
+        <v>7.963694666790827e-09</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.3762054136240329</v>
+        <v>3.162721264563931e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.963694666790827e-09</v>
+        <v>0.05419830241092268</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.162721264563931e-07</v>
+        <v>0.0658455999736032</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.05419830241092268</v>
+        <v>0.00727322641604823</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.0658455999736032</v>
+        <v>1.925912573953851</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.00727322641604823</v>
+        <v>3.939830370357924</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.957006889365685</v>
+        <v>7.921781229817658</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.939830370357924</v>
+        <v>1.42974945562808e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>7.921781229817658</v>
+        <v>226991606313.2956</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.42974945562808e-19</v>
+        <v>5.317325352220236e-10</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>226991606313.2956</v>
+        <v>7366.811140526656</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.317325352220236e-10</v>
+        <v>5.861254037751399e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7366.811140526656</v>
+        <v>8.465647429386037</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>5.861254037751399e-06</v>
+        <v>1.790585213730932</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.465647429386037</v>
+        <v>0.0004200595856534891</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.790585213730932</v>
+        <v>8.615767961797903</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0004200595856534891</v>
+        <v>0.9645574914335414</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.615767961797903</v>
+        <v>0.6719959661510927</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9645574914335414</v>
+        <v>520</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6719959661510927</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>520</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>18.62045841109491</v>
       </c>
     </row>
@@ -6637,72 +6505,66 @@
         <v>2.357883010248827e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.155457328927338</v>
+        <v>8.097121441463843e-09</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.1894422307829577</v>
+        <v>3.164058617154831e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.097121441463843e-09</v>
+        <v>0.05723152584994821</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.164058617154831e-07</v>
+        <v>0.06759033571873545</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.05723152584994821</v>
+        <v>0.007844078812937369</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.06759033571873545</v>
+        <v>1.924256942403342</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.007844078812937369</v>
+        <v>4.332074726437718</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.953592885937595</v>
+        <v>8.003551238006962</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.332074726437718</v>
+        <v>1.400684007072888e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.003551238006962</v>
+        <v>231063293090.7154</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.400684007072888e-19</v>
+        <v>5.223052130518615e-10</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>231063293090.7154</v>
+        <v>7478.286288498256</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>5.223052130518615e-10</v>
+        <v>7.732160994120419e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>7478.286288498256</v>
+        <v>8.67980081151058</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>7.732160994120419e-06</v>
+        <v>1.287234059490002</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.67980081151058</v>
+        <v>0.0005825328296565491</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.287234059490002</v>
+        <v>8.38105989600299</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0005825328296565491</v>
+        <v>0.9640890772831212</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.38105989600299</v>
+        <v>0.7018363878017562</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9640890772831212</v>
+        <v>509</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7018363878017562</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>509</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>17.59266317004541</v>
       </c>
     </row>
@@ -6717,72 +6579,66 @@
         <v>2.267729120849306e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.210107983391695</v>
+        <v>8.183868891492396e-09</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.01215309965459621</v>
+        <v>3.165416387311063e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.183868891492396e-09</v>
+        <v>0.06014699142743143</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.165416387311063e-07</v>
+        <v>0.07015424951478906</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.06014699142743143</v>
+        <v>0.008539305668863469</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.07015424951478906</v>
+        <v>1.926233420022651</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.008539305668863469</v>
+        <v>4.176067746321573</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.958168827208754</v>
+        <v>8.353146699565364</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>4.176067746321573</v>
+        <v>1.459181979132857e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>8.353146699565364</v>
+        <v>228713924262.9742</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.459181979132857e-19</v>
+        <v>5.269962378503723e-10</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>228713924262.9742</v>
+        <v>7632.989564163578</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.269962378503723e-10</v>
+        <v>1.140208579908257e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>7632.989564163578</v>
+        <v>9.661798758333687</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>1.140208579908257e-05</v>
+        <v>1.29007523953379</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.661798758333687</v>
+        <v>0.001064388759895868</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.29007523953379</v>
+        <v>8.132501056981207</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.001064388759895868</v>
+        <v>0.9651662537247332</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>8.132501056981207</v>
+        <v>0.673349846626501</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9651662537247332</v>
+        <v>499</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.673349846626501</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>499</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>17.05971046033189</v>
       </c>
     </row>
@@ -6797,72 +6653,66 @@
         <v>2.172864886212434e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.254486612198369</v>
+        <v>8.160688221125305e-09</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.151999582930983</v>
+        <v>3.166780399430115e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.160688221125305e-09</v>
+        <v>0.06259595536608337</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.166780399430115e-07</v>
+        <v>0.07320489936127737</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.06259595536608337</v>
+        <v>0.009277085771329685</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.07320489936127737</v>
+        <v>1.929219314131254</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.009277085771329685</v>
+        <v>4.152779196809001</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.960913734654287</v>
+        <v>8.095741778895498</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>4.152779196809001</v>
+        <v>1.845288891466468e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>8.095741778895498</v>
+        <v>189092867317.0224</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.845288891466468e-19</v>
+        <v>6.400493834822462e-10</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>189092867317.0224</v>
+        <v>6598.035714323595</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.400493834822462e-10</v>
+        <v>1.227040741576616e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>6598.035714323595</v>
+        <v>9.271053762035359</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>1.227040741576616e-05</v>
+        <v>1.42809622047865</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.271053762035359</v>
+        <v>0.001054671430902731</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.42809622047865</v>
+        <v>8.052387740801592</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.001054671430902731</v>
+        <v>0.9642352529905469</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>8.052387740801592</v>
+        <v>0.7380705576998479</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9642352529905469</v>
+        <v>468</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.7380705576998479</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>468</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>17.12674341928382</v>
       </c>
     </row>
@@ -6877,72 +6727,66 @@
         <v>2.075351339157728e-09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.290140152018064</v>
+        <v>8.004013545369327e-09</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.3054288352034935</v>
+        <v>3.168129155419996e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>8.004013545369327e-09</v>
+        <v>0.06427972531952728</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.168129155419996e-07</v>
+        <v>0.07653515415228039</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.06427972531952728</v>
+        <v>0.009988977116197695</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.07653515415228039</v>
+        <v>1.934702197713441</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.009988977116197695</v>
+        <v>3.861768478707007</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.962897413172423</v>
+        <v>7.646606604667449</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.861768478707007</v>
+        <v>2.068426852213473e-19</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>7.646606604667449</v>
+        <v>168583691261.0889</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.068426852213473e-19</v>
+        <v>7.17426509879394e-10</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>168583691261.0889</v>
+        <v>5878.564460032323</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.17426509879394e-10</v>
+        <v>9.662961384248071e-06</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>5878.564460032323</v>
+        <v>7.467151905640832</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>9.662961384248071e-06</v>
+        <v>1.831256229585692</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.467151905640832</v>
+        <v>0.0005387908561631452</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.831256229585692</v>
+        <v>8.174816374635025</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.0005387908561631452</v>
+        <v>0.9644604288874221</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>8.174816374635025</v>
+        <v>0.7296888758431407</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9644604288874221</v>
+        <v>447</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.7296888758431407</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>447</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>17.59997789763725</v>
       </c>
     </row>
@@ -6957,72 +6801,66 @@
         <v>1.977108278507993e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.320458728016745</v>
+        <v>7.741064918453743e-09</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.457255463839823</v>
+        <v>3.169442416784869e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.741064918453743e-09</v>
+        <v>0.0652578341187966</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.169442416784869e-07</v>
+        <v>0.07996716608920575</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.0652578341187966</v>
+        <v>0.01065228463547478</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.07996716608920575</v>
+        <v>1.931275084017142</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01065228463547478</v>
+        <v>3.897015896854833</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.962485288064357</v>
+        <v>7.474553987275707</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.897015896854833</v>
+        <v>2.164746749455469e-19</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>7.474553987275707</v>
+        <v>160897867678.7405</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.164746749455469e-19</v>
+        <v>7.515625905126027e-10</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>160897867678.7405</v>
+        <v>5604.123189656405</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.515625905126027e-10</v>
+        <v>1.422305799785936e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>5604.123189656405</v>
+        <v>8.152571225591586</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>1.422305799785936e-05</v>
+        <v>1.77024226825178</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.152571225591586</v>
+        <v>0.0009453272661529594</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.77024226825178</v>
+        <v>7.917001080926284</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0009453272661529594</v>
+        <v>0.963645732515318</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>7.917001080926284</v>
+        <v>0.7276243763192266</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.963645732515318</v>
+        <v>440</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.7276243763192266</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>440</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>16.10549851240166</v>
       </c>
     </row>
@@ -7037,72 +6875,66 @@
         <v>1.879699202695537e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.348844282049133</v>
+        <v>7.427303569437134e-09</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.6197957654692061</v>
+        <v>3.17070668214642e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.427303569437134e-09</v>
+        <v>0.0658507542196843</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.17070668214642e-07</v>
+        <v>0.08353280110503934</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.0658507542196843</v>
+        <v>0.0113127411493458</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.08353280110503934</v>
+        <v>1.934947727240839</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.0113127411493458</v>
+        <v>3.503693180038177</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.964953318871976</v>
+        <v>7.716883091249757</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.503693180038177</v>
+        <v>2.030924695867513e-19</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>7.716883091249757</v>
+        <v>169840077402.3642</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.030924695867513e-19</v>
+        <v>7.117534697748661e-10</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>169840077402.3642</v>
+        <v>5858.334679594363</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>7.117534697748661e-10</v>
+        <v>1.90574440829248e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>5858.334679594363</v>
+        <v>7.010525303200775</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>1.90574440829248e-05</v>
+        <v>1.365651946643652</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.010525303200775</v>
+        <v>0.0009366250665660922</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.365651946643652</v>
+        <v>7.508632296071305</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.0009366250665660922</v>
+        <v>0.9637129973353997</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>7.508632296071305</v>
+        <v>0.7339614677800267</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9637129973353997</v>
+        <v>476</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.7339614677800267</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>476</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>14.15662548122095</v>
       </c>
     </row>
@@ -7117,72 +6949,66 @@
         <v>1.783557782382563e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1.37651262110087</v>
+        <v>7.117347341469936e-09</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.7998902402613917</v>
+        <v>3.171917543410991e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.117347341469936e-09</v>
+        <v>0.066380473080094</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.171917543410991e-07</v>
+        <v>0.08750851336937263</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.066380473080094</v>
+        <v>0.01206280285560674</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.08750851336937263</v>
+        <v>1.924624589565926</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01206280285560674</v>
+        <v>3.859476953233139</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.962332084288053</v>
+        <v>7.970087537766455</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.859476953233139</v>
+        <v>1.903932202775487e-19</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>7.970087537766455</v>
+        <v>171647771415.6559</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.903932202775487e-19</v>
+        <v>7.011028989222353e-10</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>171647771415.6559</v>
+        <v>5609.547344371442</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7.011028989222353e-10</v>
+        <v>2.396065807513356e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>5609.547344371442</v>
+        <v>7.803459955411688</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>2.396065807513356e-05</v>
+        <v>1.357205442027524</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.803459955411688</v>
+        <v>0.001459060007944912</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.357205442027524</v>
+        <v>7.260533681244864</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.001459060007944912</v>
+        <v>0.9621340287266392</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>7.260533681244864</v>
+        <v>0.7406164401278011</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9621340287266392</v>
+        <v>468</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.7406164401278011</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>468</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>13.35169116678532</v>
       </c>
     </row>
@@ -7197,72 +7023,66 @@
         <v>1.688213829737247e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.403172351083463</v>
+        <v>6.815917193994278e-09</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.99881584841093</v>
+        <v>3.173074172841384e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>6.815917193994278e-09</v>
+        <v>0.06690172626522713</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.173074172841384e-07</v>
+        <v>0.09198863927178956</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.06690172626522713</v>
+        <v>0.01293626885235066</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.09198863927178956</v>
+        <v>1.923675242596136</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01293626885235066</v>
+        <v>4.031106007909101</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.963224668112488</v>
+        <v>8.108076145776341</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>4.031106007909101</v>
+        <v>1.83967889036173e-19</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>8.108076145776341</v>
+        <v>179505721137.5092</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.83967889036173e-19</v>
+        <v>6.705678842895362e-10</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>179505721137.5092</v>
+        <v>5927.869232246257</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.705678842895362e-10</v>
+        <v>2.39988253509385e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>5927.869232246257</v>
+        <v>8.426409769272841</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>2.39988253509385e-05</v>
+        <v>1.441724522637861</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.426409769272841</v>
+        <v>0.001704021753162513</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.441724522637861</v>
+        <v>7.318917497626764</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.001704021753162513</v>
+        <v>0.9623095511908046</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>7.318917497626764</v>
+        <v>0.7276380753204208</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9623095511908046</v>
+        <v>500</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.7276380753204208</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>13.86910315438101</v>
       </c>
     </row>
@@ -7277,72 +7097,66 @@
         <v>1.593837947974676e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.428503400443182</v>
+        <v>6.509008342579112e-09</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.221174139118333</v>
+        <v>3.174175914078488e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>6.509008342579112e-09</v>
+        <v>0.06736541428710016</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.174175914078488e-07</v>
+        <v>0.09676983650030961</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.06736541428710016</v>
+        <v>0.01390056142970822</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.09676983650030961</v>
+        <v>1.922089120041201</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01390056142970822</v>
+        <v>3.651688833612011</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.962599431784684</v>
+        <v>8.295522784382477</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.651688833612011</v>
+        <v>1.757478987739345e-19</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>8.295522784382477</v>
+        <v>188727569034.4378</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.757478987739345e-19</v>
+        <v>6.377847034722828e-10</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>188727569034.4378</v>
+        <v>6259.805409703445</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.377847034722828e-10</v>
+        <v>1.744016467304764e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>6259.805409703445</v>
+        <v>7.616224281514239</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>1.744016467304764e-05</v>
+        <v>1.53006823109062</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.616224281514239</v>
+        <v>0.001011649405190791</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.53006823109062</v>
+        <v>7.637598300153159</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.001011649405190791</v>
+        <v>0.961788870924091</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>7.637598300153159</v>
+        <v>0.7338343401824228</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.961788870924091</v>
+        <v>520</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.7338343401824228</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>520</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>15.1909075853347</v>
       </c>
     </row>
@@ -7357,72 +7171,66 @@
         <v>1.501139238713504e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-1.453139855726731</v>
+        <v>6.200275106112086e-09</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1.478845253529444</v>
+        <v>3.175221086812024e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6.200275106112086e-09</v>
+        <v>0.06776905501516971</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.175221086812024e-07</v>
+        <v>0.1018868351263795</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.06776905501516971</v>
+        <v>0.0149716246193555</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1018868351263795</v>
+        <v>1.919736674288848</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.0149716246193555</v>
+        <v>3.673889500726722</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.963606763426882</v>
+        <v>8.349374230967612</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.673889500726722</v>
+        <v>1.734881468051855e-19</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>8.349374230967612</v>
+        <v>192678018872.3792</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.734881468051855e-19</v>
+        <v>6.255528562529908e-10</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>192678018872.3792</v>
+        <v>6440.71604125594</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.255528562529908e-10</v>
+        <v>1.424448975833636e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>6440.71604125594</v>
+        <v>6.870854864920259</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>1.424448975833636e-05</v>
+        <v>1.770029960674627</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.870854864920259</v>
+        <v>0.0006724630826396369</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.770029960674627</v>
+        <v>7.813648918943272</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.0006724630826396369</v>
+        <v>0.9624156542069022</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>7.813648918943272</v>
+        <v>0.7253231881961882</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9624156542069022</v>
+        <v>526</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.7253231881961882</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>15.69192683803566</v>
       </c>
     </row>
@@ -7437,72 +7245,66 @@
         <v>1.409650458910588e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.47458807535184</v>
+        <v>5.932005734943934e-09</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1.774611461529517</v>
+        <v>3.176213135709271e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.932005734943934e-09</v>
+        <v>0.06870743931660368</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.176213135709271e-07</v>
+        <v>0.107973057301071</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.06870743931660368</v>
+        <v>0.0163775520258336</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.107973057301071</v>
+        <v>1.917644689840314</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.0163775520258336</v>
+        <v>3.442827941020441</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.964374354396199</v>
+        <v>8.816618465263446</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.442827941020441</v>
+        <v>1.69252427351676e-19</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>8.816618465263446</v>
+        <v>204350143450.6712</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.69252427351676e-19</v>
+        <v>5.887601406941719e-10</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>204350143450.6712</v>
+        <v>7067.808919699283</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.887601406941719e-10</v>
+        <v>1.470111219937201e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>7067.808919699283</v>
+        <v>7.109881911876688</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>1.470111219937201e-05</v>
+        <v>1.465031046268692</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.109881911876688</v>
+        <v>0.0007431474079184896</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.465031046268692</v>
+        <v>7.756661581756791</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0007431474079184896</v>
+        <v>0.9625639399026014</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>7.756661581756791</v>
+        <v>0.7150729866209939</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9625639399026014</v>
+        <v>538</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.7150729866209939</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>538</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>15.59502546010094</v>
       </c>
     </row>
@@ -7879,7 +7681,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.418258324252453</v>
+        <v>1.425595740810862</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.407676191319336</v>
@@ -7968,7 +7770,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.420703692087998</v>
+        <v>1.426986253309706</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.278321230140761</v>
@@ -8057,7 +7859,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.403443689029574</v>
+        <v>1.403079085674772</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.471900253468954</v>
@@ -8146,7 +7948,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.427488561041241</v>
+        <v>1.42824752455158</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.445871451755761</v>
@@ -8235,7 +8037,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427022996627239</v>
+        <v>1.431081897025469</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.30297657793918</v>
@@ -8324,7 +8126,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.432460117205274</v>
+        <v>1.437799284028682</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.406878450225825</v>
@@ -8413,7 +8215,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.424570571285258</v>
+        <v>1.420980075598426</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.380602621656629</v>
@@ -8502,7 +8304,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.400953583826163</v>
+        <v>1.398904752053551</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.418670353284333</v>
@@ -8591,7 +8393,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4040637276366</v>
+        <v>1.400962671186706</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.3728745267511</v>
@@ -8680,7 +8482,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.384883020760183</v>
+        <v>1.382290918630269</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.372907745339829</v>
@@ -8769,7 +8571,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.37332764614048</v>
+        <v>1.365430365839531</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.496300971345941</v>
@@ -8858,7 +8660,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402987622603848</v>
+        <v>1.39032638068879</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.097934933270588</v>
@@ -8947,7 +8749,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.423089921572201</v>
+        <v>1.405532259448807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.359790467316233</v>
@@ -9036,7 +8838,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.404220737557138</v>
+        <v>1.39287881621056</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.304565663880606</v>
@@ -9125,7 +8927,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.333954901548045</v>
+        <v>1.32497442790468</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.113465074490323</v>
@@ -9214,7 +9016,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.32281328786812</v>
+        <v>1.316904329173205</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.085681028990918</v>
@@ -9303,7 +9105,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.319622759842314</v>
+        <v>1.313036914435683</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.072849177970719</v>
@@ -9392,7 +9194,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.332755946646533</v>
+        <v>1.322693515332186</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.117310178318098</v>
@@ -9481,7 +9283,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.322960692020704</v>
+        <v>1.315427561516445</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.098989582696078</v>
@@ -9570,7 +9372,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.319792978645951</v>
+        <v>1.312680031008342</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.15854813900848</v>
@@ -9659,7 +9461,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.330217181697253</v>
+        <v>1.320603281958591</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.115728421999907</v>
@@ -9748,7 +9550,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.338074396677488</v>
+        <v>1.331141900886914</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.136036822344724</v>
@@ -9837,7 +9639,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.332677103353732</v>
+        <v>1.327262241813707</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.086036907983513</v>
@@ -9926,7 +9728,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.331899042332928</v>
+        <v>1.326079673281785</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.013905696256371</v>
@@ -10015,7 +9817,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.349734852908652</v>
+        <v>1.345716081415123</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.069166495807734</v>
@@ -10104,7 +9906,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.373080232767509</v>
+        <v>1.366346464655538</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.091669599278773</v>
@@ -10193,7 +9995,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.373554642764543</v>
+        <v>1.367402270108263</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.08541431834009</v>
@@ -10282,7 +10084,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.371835576325403</v>
+        <v>1.370355432092392</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.008201844990688</v>
@@ -10371,7 +10173,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.387672852758099</v>
+        <v>1.381214261587264</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.070918152691112</v>
@@ -10460,7 +10262,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.494947585081043</v>
+        <v>1.474270099470865</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.102160367023548</v>
@@ -10549,7 +10351,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.506031802505378</v>
+        <v>1.485643394673388</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.531191422196955</v>
@@ -10638,7 +10440,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.519164347651216</v>
+        <v>1.498549074844177</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.457591578294263</v>
@@ -10727,7 +10529,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542744774947678</v>
+        <v>1.517133248199054</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.696039766041296</v>
@@ -10816,7 +10618,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550567992619042</v>
+        <v>1.522035163554036</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.453434368983684</v>
@@ -10905,7 +10707,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.546441763548399</v>
+        <v>1.51925825332629</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.482142210072213</v>
@@ -10994,7 +10796,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.548980270367369</v>
+        <v>1.525225227477224</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.479620102263425</v>
@@ -11083,7 +10885,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.558748008205419</v>
+        <v>1.537296337228508</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.351207927162172</v>
@@ -11172,7 +10974,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.543831348614275</v>
+        <v>1.521487206180299</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.362788032522212</v>
@@ -11261,7 +11063,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.53992696578009</v>
+        <v>1.519068676542266</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.424275200208731</v>
@@ -11350,7 +11152,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528621964201957</v>
+        <v>1.506977561017702</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.514957850685958</v>
@@ -11439,7 +11241,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.526776663307651</v>
+        <v>1.509276739485776</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.5304428369362</v>
@@ -11528,7 +11330,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.525334448009687</v>
+        <v>1.507023770021716</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.393601380211983</v>
@@ -11617,7 +11419,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535063049731909</v>
+        <v>1.514745263257603</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.393379824829775</v>
@@ -11706,7 +11508,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.529794866973502</v>
+        <v>1.507635480344484</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.43649470496199</v>
@@ -11795,7 +11597,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.529288770453885</v>
+        <v>1.505825559745091</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.617787651644409</v>
@@ -11884,7 +11686,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.514928098210336</v>
+        <v>1.497019817206598</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.519037334932956</v>
@@ -11973,7 +11775,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.514589097469524</v>
+        <v>1.499075225156285</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.618239301573154</v>
@@ -12062,7 +11864,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.513110448693172</v>
+        <v>1.496078661672799</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.548873232253375</v>
@@ -12151,7 +11953,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.526528474505341</v>
+        <v>1.498693107853822</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.14689383837599</v>
@@ -12240,7 +12042,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.503196229697325</v>
+        <v>1.489130732666965</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.497586608457199</v>
@@ -12329,7 +12131,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.502166667574618</v>
+        <v>1.489656588101669</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.595410308947976</v>
@@ -12418,7 +12220,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.486099787038174</v>
+        <v>1.472130031996667</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.60203297285987</v>
@@ -12507,7 +12309,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.525099981332987</v>
+        <v>1.508130323896776</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.589375798597151</v>
@@ -12596,7 +12398,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.52616084918513</v>
+        <v>1.499968228919168</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.715376994946695</v>
@@ -12685,7 +12487,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.537822647254556</v>
+        <v>1.508385713826184</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.57333989719697</v>
@@ -12774,7 +12576,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.542374713276131</v>
+        <v>1.51073017228551</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.599277743507245</v>
@@ -12863,7 +12665,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.545284083487458</v>
+        <v>1.512836932928863</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.61382308974708</v>
@@ -12952,7 +12754,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.540770171310843</v>
+        <v>1.506791139728283</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.492945706774083</v>
@@ -13041,7 +12843,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.535955179663062</v>
+        <v>1.504071977428932</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.796723951417907</v>
@@ -13130,7 +12932,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.52535780745712</v>
+        <v>1.496445120971642</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.776985710840379</v>
@@ -13219,7 +13021,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.522053036825497</v>
+        <v>1.493683824145837</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.677203218479975</v>
@@ -13308,7 +13110,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.524731087711298</v>
+        <v>1.499254288455849</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.67455018944616</v>
@@ -13397,7 +13199,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.527715953032144</v>
+        <v>1.505433119934157</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.561379607600647</v>
@@ -13486,7 +13288,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.537939037432343</v>
+        <v>1.513729059286981</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.358985892179116</v>
@@ -13575,7 +13377,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.551863032706924</v>
+        <v>1.524207738874155</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.395850726205691</v>
@@ -13664,7 +13466,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.547736163429879</v>
+        <v>1.516396346539079</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.709460225382839</v>
@@ -13753,7 +13555,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.553082307240714</v>
+        <v>1.529510756964793</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.761274572681747</v>
@@ -13842,7 +13644,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.536512148122702</v>
+        <v>1.51611009179624</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.69333097152247</v>
@@ -13931,7 +13733,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.518611661767149</v>
+        <v>1.508708017175402</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.680780124292494</v>
@@ -14020,7 +13822,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.516452765230024</v>
+        <v>1.507609206915083</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.642053257820859</v>
@@ -14109,7 +13911,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.515003669269076</v>
+        <v>1.502434778324599</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.64989353798008</v>
@@ -14198,7 +14000,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.527659107326019</v>
+        <v>1.522801293701841</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.614983706762874</v>
@@ -14287,7 +14089,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.530035581766189</v>
+        <v>1.527053815634989</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.510276210910753</v>
@@ -14376,7 +14178,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.53791192866649</v>
+        <v>1.530346073018786</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.617300634283962</v>
@@ -14465,7 +14267,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.548107973879254</v>
+        <v>1.534547054203522</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.821474886746361</v>
@@ -14554,7 +14356,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.541937704439927</v>
+        <v>1.527145914984532</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.456134125048341</v>
@@ -14840,7 +14642,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.345865475608797</v>
+        <v>1.348312441772817</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.894510580367174</v>
@@ -14929,7 +14731,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.340495559863536</v>
+        <v>1.338923713279355</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.875429622001668</v>
@@ -15018,7 +14820,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.337226638560555</v>
+        <v>1.336557282341048</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.898471953694359</v>
@@ -15107,7 +14909,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.338059560334203</v>
+        <v>1.337589958637589</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.842683132310157</v>
@@ -15196,7 +14998,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.322156300895046</v>
+        <v>1.325676022529758</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.887544639419096</v>
@@ -15285,7 +15087,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.323442389702168</v>
+        <v>1.328388623188393</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.901711133024542</v>
@@ -15374,7 +15176,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.316568781220375</v>
+        <v>1.318781859210501</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.909410991592621</v>
@@ -15463,7 +15265,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.314633668448758</v>
+        <v>1.317018950387474</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.925393191508254</v>
@@ -15552,7 +15354,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.303024967174793</v>
+        <v>1.303559497592764</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.905417926860363</v>
@@ -15641,7 +15443,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.280837918482447</v>
+        <v>1.278573945064602</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.77332197204202</v>
@@ -15730,7 +15532,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.335654097770854</v>
+        <v>1.331225594046434</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.751988155844654</v>
@@ -15819,7 +15621,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.343513517642518</v>
+        <v>1.340003372938602</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.846008489696935</v>
@@ -15908,7 +15710,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.369128816928538</v>
+        <v>1.357829035591069</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.898745839452124</v>
@@ -15997,7 +15799,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.403766882084358</v>
+        <v>1.390568661969051</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.22895877160819</v>
@@ -16086,7 +15888,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.396587320498433</v>
+        <v>1.38461900505093</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.121853136602522</v>
@@ -16175,7 +15977,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.393109467195451</v>
+        <v>1.382731548566211</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.14909703423777</v>
@@ -16264,7 +16066,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.401090265835975</v>
+        <v>1.396352648306088</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.109594971057863</v>
@@ -16353,7 +16155,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406432484604928</v>
+        <v>1.398086899893948</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.171432569765248</v>
@@ -16442,7 +16244,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.422847097038926</v>
+        <v>1.414409971645749</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.168501315403253</v>
@@ -16531,7 +16333,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.456806964217071</v>
+        <v>1.442893349471269</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.08074529224606</v>
@@ -16620,7 +16422,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.456596448884576</v>
+        <v>1.444726104004732</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.134856440201221</v>
@@ -16709,7 +16511,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.460802442005141</v>
+        <v>1.459861080140803</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.065230141264247</v>
@@ -16798,7 +16600,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.456037029198195</v>
+        <v>1.454582226042545</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.03241946026201</v>
@@ -16887,7 +16689,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.462770558636139</v>
+        <v>1.461967472803619</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.046534525143634</v>
@@ -16976,7 +16778,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.506684597374619</v>
+        <v>1.500432907262312</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.293271947345283</v>
@@ -17065,7 +16867,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.515912732278249</v>
+        <v>1.514986288828626</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.900158210864875</v>
@@ -17154,7 +16956,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.519160725048362</v>
+        <v>1.517162996785246</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.841286543054213</v>
@@ -17243,7 +17045,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.512067977447216</v>
+        <v>1.514300866713333</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.635683044975571</v>
@@ -17332,7 +17134,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.505789907305402</v>
+        <v>1.513963714176702</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.677751946689855</v>
@@ -17421,7 +17223,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.515372733716249</v>
+        <v>1.519887250268346</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.712215956992678</v>
@@ -17510,7 +17312,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.51613858668102</v>
+        <v>1.520831156335613</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.65718230634796</v>
@@ -17599,7 +17401,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.513933915444988</v>
+        <v>1.512366984259275</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.616982348444805</v>
@@ -17688,7 +17490,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.491402175398092</v>
+        <v>1.489770304076921</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.769465194663748</v>
@@ -17777,7 +17579,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.491057479889005</v>
+        <v>1.48237780249752</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.651032352970131</v>
@@ -17866,7 +17668,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.477487695362998</v>
+        <v>1.460088048645222</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.131121271681598</v>
@@ -17955,7 +17757,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.466145727347305</v>
+        <v>1.448741127662492</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.108915668078893</v>
@@ -18044,7 +17846,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.427508073693078</v>
+        <v>1.412752715395492</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.000361448321205</v>
@@ -18133,7 +17935,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.429840722409373</v>
+        <v>1.413500944469602</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.997593928620931</v>
@@ -18222,7 +18024,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.432438167955904</v>
+        <v>1.417141257051224</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.97145236631184</v>
@@ -18311,7 +18113,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.443886870473648</v>
+        <v>1.424578801102962</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.933514855688167</v>
@@ -18400,7 +18202,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.434147885505155</v>
+        <v>1.413456531611569</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.950247867816725</v>
@@ -18489,7 +18291,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.436575994922078</v>
+        <v>1.415631888523887</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.001205308022243</v>
@@ -18578,7 +18380,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.441660973175569</v>
+        <v>1.421800548608508</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.004112213293362</v>
@@ -18667,7 +18469,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.428359564311209</v>
+        <v>1.406498597403431</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.017221601775238</v>
@@ -18756,7 +18558,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.428401358347886</v>
+        <v>1.406230661905104</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.001457359006003</v>
@@ -18845,7 +18647,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.419974383078391</v>
+        <v>1.398620697674668</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.016199570678321</v>
@@ -18934,7 +18736,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.417804764209719</v>
+        <v>1.396682935656947</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.96163392872371</v>
@@ -19023,7 +18825,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.411803811861387</v>
+        <v>1.395072952660488</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.065089830548478</v>
@@ -19112,7 +18914,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.41833088018753</v>
+        <v>1.400555180952673</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.000511931213289</v>
@@ -19201,7 +19003,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.407175581619815</v>
+        <v>1.392523654134695</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.991276193193325</v>
@@ -19290,7 +19092,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.400499127321223</v>
+        <v>1.392065183642747</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.89871122260901</v>
@@ -19379,7 +19181,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.432395940473956</v>
+        <v>1.411810511197128</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.499960696979155</v>
@@ -19468,7 +19270,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.42486593162313</v>
+        <v>1.40017813291163</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.582895935055717</v>
@@ -19557,7 +19359,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.430280230719089</v>
+        <v>1.393355891816427</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.528676571095642</v>
@@ -19646,7 +19448,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.433525663868393</v>
+        <v>1.393583528181012</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.495666811209043</v>
@@ -19735,7 +19537,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.425969993690439</v>
+        <v>1.38431950385775</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.638690889956997</v>
@@ -19824,7 +19626,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.422287836708447</v>
+        <v>1.376022456635622</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.476936925411021</v>
@@ -19913,7 +19715,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.419247588832759</v>
+        <v>1.372281025180387</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.570983966417337</v>
@@ -20002,7 +19804,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.425950317642641</v>
+        <v>1.376046216068179</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.449360156205138</v>
@@ -20091,7 +19893,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.427617094424047</v>
+        <v>1.379791480068432</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.444439684863439</v>
@@ -20180,7 +19982,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.391342022797241</v>
+        <v>1.350956663146391</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.025269410308497</v>
@@ -20269,7 +20071,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.398351012366976</v>
+        <v>1.3610400964078</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.066187840958702</v>
@@ -20358,7 +20160,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.413580516453217</v>
+        <v>1.37259205763187</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.021367791347399</v>
@@ -20447,7 +20249,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.410001439050992</v>
+        <v>1.367691761183476</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.976482287295346</v>
@@ -20536,7 +20338,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.424888803255624</v>
+        <v>1.381738261827048</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.947960869516443</v>
@@ -20625,7 +20427,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.431862861991278</v>
+        <v>1.388380571289291</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.095321858695425</v>
@@ -20714,7 +20516,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.4400571134269</v>
+        <v>1.404395011053469</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.071514287056747</v>
@@ -20803,7 +20605,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.437502469514391</v>
+        <v>1.408586887436487</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.09927198931999</v>
@@ -20892,7 +20694,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.42128581649866</v>
+        <v>1.404392930891692</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.055847350573291</v>
@@ -20981,7 +20783,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.418560123681532</v>
+        <v>1.407720040060665</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.970415101868117</v>
@@ -21070,7 +20872,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.417449358667821</v>
+        <v>1.407234654836581</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.075119858504765</v>
@@ -21159,7 +20961,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.41513082458473</v>
+        <v>1.408267263048717</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.049907039658481</v>
@@ -21248,7 +21050,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.415901678747996</v>
+        <v>1.411886648647949</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.055243651644085</v>
@@ -21337,7 +21139,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.420182622035272</v>
+        <v>1.419471784148001</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.054209168843988</v>
@@ -21426,7 +21228,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.414751253547379</v>
+        <v>1.410957748723805</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.027312845440136</v>
@@ -21515,7 +21317,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.451323450658341</v>
+        <v>1.444233392008526</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.342860429091529</v>
@@ -21801,7 +21603,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.563275001950815</v>
+        <v>1.563752787392346</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.591552503043676</v>
@@ -21890,7 +21692,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565275864029335</v>
+        <v>1.567421033714007</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.562783787209718</v>
@@ -21979,7 +21781,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.567237109315864</v>
+        <v>1.571118099664391</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.627246952327523</v>
@@ -22068,7 +21870,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.55803596112619</v>
+        <v>1.563608715993434</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.539434219061568</v>
@@ -22157,7 +21959,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558795226178528</v>
+        <v>1.566827000369695</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.59853372698513</v>
@@ -22246,7 +22048,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570857003612682</v>
+        <v>1.571368437620324</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.625450260963122</v>
@@ -22335,7 +22137,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.55737093847625</v>
+        <v>1.553684037955847</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.517559915585736</v>
@@ -22424,7 +22226,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.5269375235586</v>
+        <v>1.523894091621093</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.414099370810739</v>
@@ -22513,7 +22315,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.524221750528803</v>
+        <v>1.518227207337364</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.469643114012325</v>
@@ -22602,7 +22404,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.51456571861378</v>
+        <v>1.508109300414604</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.399633141053301</v>
@@ -22691,7 +22493,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.520007465764163</v>
+        <v>1.495147461866241</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.465175930047901</v>
@@ -22780,7 +22582,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520469441830494</v>
+        <v>1.491034346603124</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.932049841109108</v>
@@ -22869,7 +22671,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.521550274043326</v>
+        <v>1.484121388791747</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.587591894730958</v>
@@ -22958,7 +22760,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.509246376940535</v>
+        <v>1.476512231638672</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.752893029293649</v>
@@ -23047,7 +22849,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.489090132308418</v>
+        <v>1.458473976879886</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.965961238188418</v>
@@ -23136,7 +22938,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.486418920908772</v>
+        <v>1.454679184997353</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.845941043976425</v>
@@ -23225,7 +23027,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.492019826570768</v>
+        <v>1.458526049421515</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.842376737810396</v>
@@ -23314,7 +23116,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.496931779911184</v>
+        <v>1.460157254483608</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.678156692095436</v>
@@ -23403,7 +23205,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.5071782212054</v>
+        <v>1.470849365002523</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.636919559804498</v>
@@ -23492,7 +23294,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.504033148877157</v>
+        <v>1.469141107874518</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.858910096401209</v>
@@ -23581,7 +23383,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.483153095750227</v>
+        <v>1.449855235472549</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.638790725223372</v>
@@ -23670,7 +23472,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.500113306013859</v>
+        <v>1.471460569178268</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.634592547983563</v>
@@ -23759,7 +23561,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.515006941489958</v>
+        <v>1.489260667607225</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.677310376423403</v>
@@ -23848,7 +23650,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.516460658112369</v>
+        <v>1.492452490224674</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.545410047519634</v>
@@ -23937,7 +23739,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.51989361716956</v>
+        <v>1.49194990498762</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.742068495087529</v>
@@ -24026,7 +23828,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.533151092820559</v>
+        <v>1.504027814357501</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.812745579817968</v>
@@ -24115,7 +23917,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.540026972672838</v>
+        <v>1.511519897153792</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.548785798213581</v>
@@ -24204,7 +24006,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.528673183116434</v>
+        <v>1.51131009482834</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.607637308228145</v>
@@ -24293,7 +24095,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.532687782057263</v>
+        <v>1.517662781228661</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.504481014434681</v>
@@ -24382,7 +24184,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.555345514794524</v>
+        <v>1.541194856022593</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.379429691043527</v>
@@ -24471,7 +24273,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.555758799672968</v>
+        <v>1.544425851921254</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.618411729104308</v>
@@ -24560,7 +24362,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.560480473226695</v>
+        <v>1.546479434189226</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.545406634104127</v>
@@ -24649,7 +24451,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.55700747650771</v>
+        <v>1.539612797455747</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.738037290908012</v>
@@ -24738,7 +24540,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.552390326819576</v>
+        <v>1.528259916509358</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.422982716550181</v>
@@ -24827,7 +24629,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532241290604722</v>
+        <v>1.512001176270162</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.095440403890105</v>
@@ -24916,7 +24718,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.534891812551221</v>
+        <v>1.511455061203326</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.344811155963695</v>
@@ -25005,7 +24807,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.53277955202369</v>
+        <v>1.507170212189728</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.348714644452184</v>
@@ -25094,7 +24896,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.527783880137388</v>
+        <v>1.503358519528014</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.347698086402636</v>
@@ -25183,7 +24985,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.512571535326801</v>
+        <v>1.491548515632295</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.385490907495739</v>
@@ -25272,7 +25074,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.499934703517594</v>
+        <v>1.479311357825937</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.328572827168579</v>
@@ -25361,7 +25163,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494616799131546</v>
+        <v>1.472891324997721</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.50405008521169</v>
@@ -25450,7 +25252,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.491651785833169</v>
+        <v>1.468747727633761</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.227544562681992</v>
@@ -25539,7 +25341,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.503185746377212</v>
+        <v>1.477843646036302</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.18895017661942</v>
@@ -25628,7 +25430,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.502124586949666</v>
+        <v>1.4708330155135</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.400590227684762</v>
@@ -25717,7 +25519,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.494877712841572</v>
+        <v>1.460183846776969</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.420766130056493</v>
@@ -25806,7 +25608,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.485884262145316</v>
+        <v>1.451733294288829</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.381832752109356</v>
@@ -25895,7 +25697,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.480569722368077</v>
+        <v>1.44427476610648</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.401962513459337</v>
@@ -25984,7 +25786,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.470375814599024</v>
+        <v>1.440631508139395</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.307438763803192</v>
@@ -26073,7 +25875,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.481048472265752</v>
+        <v>1.448289521790951</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.06804336461954</v>
@@ -26162,7 +25964,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.485032952127209</v>
+        <v>1.461023386547856</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.532346932916626</v>
@@ -26251,7 +26053,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.483930526512721</v>
+        <v>1.462575866425647</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.563183860468027</v>
@@ -26340,7 +26142,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.482123064881443</v>
+        <v>1.45614805187195</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.547636204903091</v>
@@ -26429,7 +26231,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.487764528043595</v>
+        <v>1.459089310962026</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.668201109522577</v>
@@ -26518,7 +26320,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.484970210866297</v>
+        <v>1.455235537961498</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.628112415271048</v>
@@ -26607,7 +26409,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.494003150925606</v>
+        <v>1.459753638465278</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.677598035353223</v>
@@ -26696,7 +26498,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.502851886442725</v>
+        <v>1.468047014075066</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.970875096919622</v>
@@ -26785,7 +26587,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.489270991395439</v>
+        <v>1.457500786544672</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.942682641541531</v>
@@ -26874,7 +26676,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.484255486538262</v>
+        <v>1.447711130612084</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.085846671792929</v>
@@ -26963,7 +26765,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.484927236353678</v>
+        <v>1.447421289249857</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.888463783847985</v>
@@ -27052,7 +26854,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.48391549083855</v>
+        <v>1.443953431209754</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.898210337220092</v>
@@ -27141,7 +26943,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.477062961325313</v>
+        <v>1.441018710934263</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.85603835938891</v>
@@ -27230,7 +27032,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.488213984823374</v>
+        <v>1.451628312852294</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.581336209994242</v>
@@ -27319,7 +27121,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.487495967078182</v>
+        <v>1.453656242782288</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.771012185327706</v>
@@ -27408,7 +27210,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.487176961497596</v>
+        <v>1.455095750360966</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.54262064282614</v>
@@ -27497,7 +27299,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.493970559885757</v>
+        <v>1.462272038843957</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.498969873507891</v>
@@ -27586,7 +27388,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.499921437340615</v>
+        <v>1.471622830877512</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.783321500440018</v>
@@ -27675,7 +27477,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.515473828762838</v>
+        <v>1.487574248489894</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.559503082595536</v>
@@ -27764,7 +27566,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.509331740808486</v>
+        <v>1.486503897984091</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.944633379237161</v>
@@ -27853,7 +27655,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.50719491536011</v>
+        <v>1.489661478974999</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.944642311154572</v>
@@ -27942,7 +27744,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.512162465820685</v>
+        <v>1.498768573731714</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.788447145324414</v>
@@ -28031,7 +27833,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.51912443743721</v>
+        <v>1.50282906981673</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.894286536115788</v>
@@ -28120,7 +27922,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.530265805303462</v>
+        <v>1.522993586022413</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.62099778764019</v>
@@ -28209,7 +28011,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.540402836383879</v>
+        <v>1.534040841717888</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.69184728470627</v>
@@ -28298,7 +28100,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.546837720914185</v>
+        <v>1.540556949471</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.908443383096369</v>
@@ -28387,7 +28189,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.557064081117157</v>
+        <v>1.550521868853814</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.992737605663082</v>
@@ -28476,7 +28278,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.561888438254216</v>
+        <v>1.553592871360845</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.933333541412006</v>
@@ -28762,7 +28564,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.608392034615277</v>
+        <v>1.597921755384976</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.692362619868943</v>
@@ -28851,7 +28653,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.609987962123941</v>
+        <v>1.598719107044005</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.809239594465635</v>
@@ -28940,7 +28742,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592296732703833</v>
+        <v>1.586944420430893</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.636960459206742</v>
@@ -29029,7 +28831,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.602860517881183</v>
+        <v>1.593983120829791</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.841222383984065</v>
@@ -29118,7 +28920,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.597278813782539</v>
+        <v>1.588447722049902</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.71892157306676</v>
@@ -29207,7 +29009,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.598908784150748</v>
+        <v>1.582089966512995</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.792094942646604</v>
@@ -29296,7 +29098,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.574147969539908</v>
+        <v>1.555886628987784</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.730973655182721</v>
@@ -29385,7 +29187,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536461757231184</v>
+        <v>1.513139407252873</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.242941784974886</v>
@@ -29474,7 +29276,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531207910304286</v>
+        <v>1.507395120795736</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.310003619723723</v>
@@ -29563,7 +29365,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.512593397983753</v>
+        <v>1.483190609465062</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.148125951316016</v>
@@ -29652,7 +29454,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.542610766210796</v>
+        <v>1.500723051058264</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.194473194486124</v>
@@ -29741,7 +29543,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.541143498784696</v>
+        <v>1.499849230327077</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.216365596203322</v>
@@ -29830,7 +29632,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.54217632904133</v>
+        <v>1.497137519466149</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.236507687535738</v>
@@ -29919,7 +29721,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.537217760074027</v>
+        <v>1.487249470353549</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.268962037680328</v>
@@ -30008,7 +29810,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.538542799548161</v>
+        <v>1.487893745168331</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.265239685529811</v>
@@ -30097,7 +29899,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.523551880594864</v>
+        <v>1.473080157702889</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.249969252083125</v>
@@ -30186,7 +29988,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.537706264263148</v>
+        <v>1.486450787097872</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.188165577553129</v>
@@ -30275,7 +30077,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.553224392212826</v>
+        <v>1.499684233049457</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.18547874410545</v>
@@ -30364,7 +30166,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.541635433723776</v>
+        <v>1.490052882443813</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.195057621465446</v>
@@ -30453,7 +30255,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.546251871604599</v>
+        <v>1.492992560645515</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.349837791854097</v>
@@ -30542,7 +30344,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559007138841978</v>
+        <v>1.50985020805972</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.385517155784479</v>
@@ -30631,7 +30433,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.574830165258229</v>
+        <v>1.525389999894825</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.205307050139393</v>
@@ -30720,7 +30522,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.624375927063015</v>
+        <v>1.565152955799538</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.383756451185982</v>
@@ -30809,7 +30611,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.618206016712076</v>
+        <v>1.561511209047362</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.33157714184042</v>
@@ -30898,7 +30700,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.626015022381424</v>
+        <v>1.567625541609111</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.325285369011684</v>
@@ -30987,7 +30789,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630703872573994</v>
+        <v>1.576920357560975</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.160553744096681</v>
@@ -31076,7 +30878,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629850197708784</v>
+        <v>1.577592475591781</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.353278151722459</v>
@@ -31165,7 +30967,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621369487622504</v>
+        <v>1.572179642222778</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.64606462319698</v>
@@ -31254,7 +31056,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62239541631676</v>
+        <v>1.576197046988715</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.852823448262313</v>
@@ -31343,7 +31145,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622936567916235</v>
+        <v>1.586091390024876</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.531764944339804</v>
@@ -31432,7 +31234,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.609354132459656</v>
+        <v>1.578942316388291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.721616746992393</v>
@@ -31521,7 +31323,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588622093064532</v>
+        <v>1.561302300175683</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.811900715388945</v>
@@ -31610,7 +31412,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.564841621299012</v>
+        <v>1.53972830807501</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.839542232774666</v>
@@ -31699,7 +31501,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.563472516056058</v>
+        <v>1.534324497879328</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.54951737368612</v>
@@ -31788,7 +31590,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.529290246654845</v>
+        <v>1.512841905977755</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.281354893867743</v>
@@ -31877,7 +31679,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.525179574689217</v>
+        <v>1.513421252344175</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.225853531260965</v>
@@ -31966,7 +31768,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.522259167961016</v>
+        <v>1.513495879885922</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.269251486975259</v>
@@ -32055,7 +31857,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505620682752929</v>
+        <v>1.499551639084221</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.314068194516418</v>
@@ -32144,7 +31946,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.483493659638411</v>
+        <v>1.485256710646605</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.282491794888167</v>
@@ -32233,7 +32035,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.483695639309591</v>
+        <v>1.489896140366589</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.236826149170682</v>
@@ -32322,7 +32124,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.485635157645745</v>
+        <v>1.487756814770044</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.35012145580548</v>
@@ -32411,7 +32213,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.477505507182065</v>
+        <v>1.476986509889994</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.252784370936752</v>
@@ -32500,7 +32302,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.483280865517006</v>
+        <v>1.480507670070626</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.381099650802591</v>
@@ -32589,7 +32391,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.464501144234534</v>
+        <v>1.466318293889645</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.242007647185288</v>
@@ -32678,7 +32480,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.456199862992668</v>
+        <v>1.45723565085808</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.470960957781805</v>
@@ -32767,7 +32569,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.449862118235928</v>
+        <v>1.450954780586796</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.307060908119706</v>
@@ -32856,7 +32658,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.448745724797182</v>
+        <v>1.449274250765133</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.297149425422874</v>
@@ -32945,7 +32747,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.442468260550163</v>
+        <v>1.444827332426786</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.268637520676604</v>
@@ -33034,7 +32836,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456822387212297</v>
+        <v>1.45887871634859</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.138791662053325</v>
@@ -33123,7 +32925,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.44639785852715</v>
+        <v>1.451856250546997</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.356086109739882</v>
@@ -33212,7 +33014,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.425721859684427</v>
+        <v>1.428609882396102</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.269786086785028</v>
@@ -33301,7 +33103,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.420608530627728</v>
+        <v>1.419710643703211</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.359271238109252</v>
@@ -33390,7 +33192,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.444924322825031</v>
+        <v>1.441469212854404</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.485661071769667</v>
@@ -33479,7 +33281,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.453017018736396</v>
+        <v>1.442897868534726</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.814421450466028</v>
@@ -33568,7 +33370,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.449294071038427</v>
+        <v>1.441553431167697</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.632067932079084</v>
@@ -33657,7 +33459,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.447152976702217</v>
+        <v>1.443130976002499</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.55490130604187</v>
@@ -33746,7 +33548,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.429989048990054</v>
+        <v>1.42890933660088</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.802549169648141</v>
@@ -33835,7 +33637,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.426361578838182</v>
+        <v>1.424808385903902</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.681009054048713</v>
@@ -33924,7 +33726,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.426896012866471</v>
+        <v>1.421567612919022</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.588847860502741</v>
@@ -34013,7 +33815,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.431920949567495</v>
+        <v>1.418216084645088</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.54073223439295</v>
@@ -34102,7 +33904,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.417709242823802</v>
+        <v>1.413285147355415</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.677210479142821</v>
@@ -34191,7 +33993,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.423180642866538</v>
+        <v>1.420206616504026</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.361877296288748</v>
@@ -34280,7 +34082,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.426495943698685</v>
+        <v>1.418178507712548</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.626762975027337</v>
@@ -34369,7 +34171,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.426289346344641</v>
+        <v>1.417740159521998</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.378097540369064</v>
@@ -34458,7 +34260,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.41873243322836</v>
+        <v>1.409553932612919</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.238322082900461</v>
@@ -34547,7 +34349,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.416548303706972</v>
+        <v>1.409746927930532</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.52683057730914</v>
@@ -34636,7 +34438,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.42603401166679</v>
+        <v>1.421493579859465</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.592709471780739</v>
@@ -34725,7 +34527,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.407310488885674</v>
+        <v>1.40419358405324</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.640178679527609</v>
@@ -34814,7 +34616,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.384609658282844</v>
+        <v>1.386341461927443</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.584826234911215</v>
@@ -34903,7 +34705,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.376746621966639</v>
+        <v>1.37624347749401</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.511650566908882</v>
@@ -34992,7 +34794,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.38303619772168</v>
+        <v>1.375067770814802</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.479788381964345</v>
@@ -35081,7 +34883,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.39598798750036</v>
+        <v>1.391655972862276</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.676187496371591</v>
@@ -35170,7 +34972,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.410510082505837</v>
+        <v>1.404182342674486</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.52249860450213</v>
@@ -35259,7 +35061,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.428188844791819</v>
+        <v>1.420402819229486</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.527636479718558</v>
@@ -35348,7 +35150,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.419641114929022</v>
+        <v>1.406914572391205</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.370173896213296</v>
@@ -35437,7 +35239,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.409788503094848</v>
+        <v>1.405327160578112</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.290424768798534</v>
@@ -35723,7 +35525,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.356854333984599</v>
+        <v>1.364456802784734</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.20805512512585</v>
@@ -35812,7 +35614,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.360156173875007</v>
+        <v>1.370609230163977</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.352496541867238</v>
@@ -35901,7 +35703,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.321440336507957</v>
+        <v>1.327723510801032</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.034884693482544</v>
@@ -35990,7 +35792,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.338039794673357</v>
+        <v>1.345551236972402</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.953340939985991</v>
@@ -36079,7 +35881,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.346366763318268</v>
+        <v>1.35646304475316</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.020550209534353</v>
@@ -36168,7 +35970,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.327941829004281</v>
+        <v>1.329199464379733</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.006311491579628</v>
@@ -36257,7 +36059,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.307939649786384</v>
+        <v>1.303988200766995</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.111880170889829</v>
@@ -36346,7 +36148,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.25493082865108</v>
+        <v>1.244347623233576</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.627402648305691</v>
@@ -36435,7 +36237,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.233656669865679</v>
+        <v>1.230543100243036</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.624418924325971</v>
@@ -36524,7 +36326,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.226910479683854</v>
+        <v>1.220827475726372</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.627349298017728</v>
@@ -36613,7 +36415,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.233055674958031</v>
+        <v>1.225114280478797</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.602237214089898</v>
@@ -36702,7 +36504,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.238863752565014</v>
+        <v>1.230669140274834</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.60247721633115</v>
@@ -36791,7 +36593,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.240768192559396</v>
+        <v>1.229627108852915</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.606071365553029</v>
@@ -36880,7 +36682,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.230403227282872</v>
+        <v>1.221955315663553</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.60970929256422</v>
@@ -36969,7 +36771,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.227778468577108</v>
+        <v>1.218162353952397</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.606998217866238</v>
@@ -37058,7 +36860,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.224378130774914</v>
+        <v>1.211434426216984</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.616167098361715</v>
@@ -37147,7 +36949,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.220417721981184</v>
+        <v>1.209670205957371</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.611449708009198</v>
@@ -37236,7 +37038,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.238114975532667</v>
+        <v>1.222670941004466</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.580769384087993</v>
@@ -37325,7 +37127,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.223811719421219</v>
+        <v>1.204130707722031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.611526377949499</v>
@@ -37414,7 +37216,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.218780370082136</v>
+        <v>1.197849582961185</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.591611892932519</v>
@@ -37503,7 +37305,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.230372661447316</v>
+        <v>1.210004872253821</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.582521482398135</v>
@@ -37592,7 +37394,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.237866696964608</v>
+        <v>1.218262691305696</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.542277399512741</v>
@@ -37681,7 +37483,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.280716187218392</v>
+        <v>1.262347205375873</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.240788470652676</v>
@@ -37770,7 +37572,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.286910588816205</v>
+        <v>1.268757584638883</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.119920880180911</v>
@@ -37859,7 +37661,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.27474648364517</v>
+        <v>1.260650597660992</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.243640965551517</v>
@@ -37948,7 +37750,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.268724502272211</v>
+        <v>1.253525744080397</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.134596888305863</v>
@@ -38037,7 +37839,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.246516192489216</v>
+        <v>1.236950801239167</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.167639734695116</v>
@@ -38126,7 +37928,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.236311752733801</v>
+        <v>1.228425685787964</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.078065651123063</v>
@@ -38215,7 +38017,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.22022587186995</v>
+        <v>1.210224613799437</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.21593986816338</v>
@@ -38304,7 +38106,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.212916418329101</v>
+        <v>1.203876727174906</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.272549716525028</v>
@@ -38393,7 +38195,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.178214755478592</v>
+        <v>1.170499922085975</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.929130447093092</v>
@@ -38482,7 +38284,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.175981010897122</v>
+        <v>1.170697729941013</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.88241858770233</v>
@@ -38571,7 +38373,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.163749822417148</v>
+        <v>1.162236453514861</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.829355183513951</v>
@@ -38660,7 +38462,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.15754018207665</v>
+        <v>1.159853657489856</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.903843398043113</v>
@@ -38749,7 +38551,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.149734464560618</v>
+        <v>1.154590268696534</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.895445686435083</v>
@@ -38838,7 +38640,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.158347687259537</v>
+        <v>1.166333237414113</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.918157103543591</v>
@@ -38927,7 +38729,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.164664997846098</v>
+        <v>1.170267738818075</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.919782300314562</v>
@@ -39016,7 +38818,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.185057401903134</v>
+        <v>1.189239211744959</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.660141748491413</v>
@@ -39105,7 +38907,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.140895051074972</v>
+        <v>1.142875310256834</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.661132048593391</v>
@@ -39194,7 +38996,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.142943170462388</v>
+        <v>1.143548655506659</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.676504148256147</v>
@@ -39283,7 +39085,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.13971488673329</v>
+        <v>1.141460200343993</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.691480418438954</v>
@@ -39372,7 +39174,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.147131230084609</v>
+        <v>1.149617465416405</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.648770894287053</v>
@@ -39461,7 +39263,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.154378037625105</v>
+        <v>1.154756778037628</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.687971208303492</v>
@@ -39550,7 +39352,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.136492401765766</v>
+        <v>1.136677059466441</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.681435155635664</v>
@@ -39639,7 +39441,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.136493590067403</v>
+        <v>1.136250060904074</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.78239173601896</v>
@@ -39728,7 +39530,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.13108119539161</v>
+        <v>1.130213977600844</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.741818116479509</v>
@@ -39817,7 +39619,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.137939183712698</v>
+        <v>1.137225477494576</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.73162932510837</v>
@@ -39906,7 +39708,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.126591939943344</v>
+        <v>1.121284956001494</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.719481323950033</v>
@@ -39995,7 +39797,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.121820067862711</v>
+        <v>1.112323474524514</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.75168145349935</v>
@@ -40084,7 +39886,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.113091119389581</v>
+        <v>1.100773205320633</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.821176065228763</v>
@@ -40173,7 +39975,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.097932805757214</v>
+        <v>1.086532289097276</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.806214899480311</v>
@@ -40262,7 +40064,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.094516221074385</v>
+        <v>1.080294890723053</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.833317116020078</v>
@@ -40351,7 +40153,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.106160630275045</v>
+        <v>1.091911546625979</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.986198495167135</v>
@@ -40440,7 +40242,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.101338738436975</v>
+        <v>1.086640761961571</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.022495122247083</v>
@@ -40529,7 +40331,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.095317641340832</v>
+        <v>1.081323986392545</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.998156985958852</v>
@@ -40618,7 +40420,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.091633846658065</v>
+        <v>1.077788364094211</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.053627958014831</v>
@@ -40707,7 +40509,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.084406577132727</v>
+        <v>1.06833411040176</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.046634388663369</v>
@@ -40796,7 +40598,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.08865368469489</v>
+        <v>1.069206260194817</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.010328548848587</v>
@@ -40885,7 +40687,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.093811513993362</v>
+        <v>1.072381386370137</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.039906126707322</v>
@@ -40974,7 +40776,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.106368333612936</v>
+        <v>1.074692895395095</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.881665916353624</v>
@@ -41063,7 +40865,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.092541544315927</v>
+        <v>1.072798109896466</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.908916025910139</v>
@@ -41152,7 +40954,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.096358088331209</v>
+        <v>1.079743265489498</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.850881541410456</v>
@@ -41241,7 +41043,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.099290302047594</v>
+        <v>1.081031250551497</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.933125119243367</v>
@@ -41330,7 +41132,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.10695774270005</v>
+        <v>1.08616765849436</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.891996148447839</v>
@@ -41419,7 +41221,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.10766046023142</v>
+        <v>1.08693888220184</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.811978766778268</v>
@@ -41508,7 +41310,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.105410026394793</v>
+        <v>1.084641211282244</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.944686598391294</v>
@@ -41597,7 +41399,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.103157069694966</v>
+        <v>1.085830561295118</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.946825332116915</v>
@@ -41686,7 +41488,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.095542666606341</v>
+        <v>1.078618785792025</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.972289944787563</v>
@@ -41775,7 +41577,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.094102688955012</v>
+        <v>1.07537037215652</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.92286759788839</v>
@@ -41864,7 +41666,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.098458221713376</v>
+        <v>1.079935437321074</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.942310780088748</v>
@@ -41953,7 +41755,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.107041218392209</v>
+        <v>1.08797068931575</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.971611189835224</v>
@@ -42042,7 +41844,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.112882450877718</v>
+        <v>1.095731436441161</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.053662908398542</v>
@@ -42131,7 +41933,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.120329828768948</v>
+        <v>1.104707703013014</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.037343255996953</v>
@@ -42220,7 +42022,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.129203855260171</v>
+        <v>1.114305497432397</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.764326085849511</v>
@@ -42309,7 +42111,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.146567706305894</v>
+        <v>1.117158998102034</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.746357488936952</v>
@@ -42398,7 +42200,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.123198768929148</v>
+        <v>1.101693940449691</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.91637546934012</v>
@@ -42684,7 +42486,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.510053240716447</v>
+        <v>1.526403097769841</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.611766771968193</v>
@@ -42773,7 +42575,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.510948073088888</v>
+        <v>1.528297347292656</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.632319733370571</v>
@@ -42862,7 +42664,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501356522288969</v>
+        <v>1.516759102723422</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.591924820660088</v>
@@ -42951,7 +42753,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.511234073640008</v>
+        <v>1.52717555856048</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.456618614808822</v>
@@ -43040,7 +42842,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.517670221343062</v>
+        <v>1.533172362291687</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.645312061064646</v>
@@ -43129,7 +42931,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.537213953502245</v>
+        <v>1.546068921956542</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.499746154402462</v>
@@ -43218,7 +43020,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526833069016548</v>
+        <v>1.532707239099416</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.601575790549375</v>
@@ -43307,7 +43109,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.499999970636532</v>
+        <v>1.503668777393794</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.527301544733864</v>
@@ -43396,7 +43198,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.485923633142274</v>
+        <v>1.492675471797673</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.561019750417747</v>
@@ -43485,7 +43287,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.466233265318085</v>
+        <v>1.470232975567514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.294410747374624</v>
@@ -43574,7 +43376,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.48870202089962</v>
+        <v>1.482048138276504</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.625500589911865</v>
@@ -43663,7 +43465,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.505765142486643</v>
+        <v>1.495291488652911</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.554407322427416</v>
@@ -43752,7 +43554,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.518242849911594</v>
+        <v>1.505516754711918</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.70022952944545</v>
@@ -43841,7 +43643,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.507968297596129</v>
+        <v>1.493529429339517</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.662441782131147</v>
@@ -43930,7 +43732,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.438174235420698</v>
+        <v>1.431350590531344</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.218902998646389</v>
@@ -44019,7 +43821,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.430675583575364</v>
+        <v>1.423033086809524</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.213186019669146</v>
@@ -44108,7 +43910,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.428624913189903</v>
+        <v>1.418016320692673</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.195335554334084</v>
@@ -44197,7 +43999,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.439406922514358</v>
+        <v>1.426381604169944</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.215320718808567</v>
@@ -44286,7 +44088,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.433116783971575</v>
+        <v>1.421623285698722</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.219109790096988</v>
@@ -44375,7 +44177,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.420500644176901</v>
+        <v>1.409863694632165</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.233368767171755</v>
@@ -44464,7 +44266,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.421507894382247</v>
+        <v>1.414591933464435</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.259531637779608</v>
@@ -44553,7 +44355,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.43456502909538</v>
+        <v>1.431086384171846</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.261332002141042</v>
@@ -44642,7 +44444,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.440901599164641</v>
+        <v>1.437523828418516</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.176402165883021</v>
@@ -44731,7 +44533,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.412361246084249</v>
+        <v>1.411326202933201</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.175213586293085</v>
@@ -44820,7 +44622,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.409033140806</v>
+        <v>1.409853370896018</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.275044815690069</v>
@@ -44909,7 +44711,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.417582756699974</v>
+        <v>1.418465482372448</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.327351588107956</v>
@@ -44998,7 +44800,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.405843124196925</v>
+        <v>1.41011672229695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.218106123461109</v>
@@ -45087,7 +44889,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.350507762429393</v>
+        <v>1.353798034389283</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.889744509220243</v>
@@ -45176,7 +44978,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.350264377489474</v>
+        <v>1.358694392047338</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.885373530004899</v>
@@ -45265,7 +45067,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.388497491036843</v>
+        <v>1.396997916852097</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.805397376358167</v>
@@ -45354,7 +45156,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.371811439142518</v>
+        <v>1.379269029310964</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.864285423512678</v>
@@ -45443,7 +45245,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.377843594899226</v>
+        <v>1.387135699658453</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.878920376419221</v>
@@ -45532,7 +45334,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.363163410305968</v>
+        <v>1.372669663668111</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.889553631775191</v>
@@ -45621,7 +45423,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.338277828772892</v>
+        <v>1.330130447335028</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.488125130212274</v>
@@ -45710,7 +45512,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.212013413812969</v>
+        <v>1.211581722929573</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.471656189750217</v>
@@ -45799,7 +45601,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.203928450822188</v>
+        <v>1.205206572996728</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.469338925825808</v>
@@ -45888,7 +45690,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.199009554941257</v>
+        <v>1.199647368305668</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.472210462064693</v>
@@ -45977,7 +45779,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.199694219913868</v>
+        <v>1.200343495761305</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.465709719040642</v>
@@ -46066,7 +45868,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.205020981991281</v>
+        <v>1.206610189982624</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.468268010865805</v>
@@ -46155,7 +45957,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.208127763272654</v>
+        <v>1.20953641626194</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.464127862541248</v>
@@ -46244,7 +46046,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.210250374065203</v>
+        <v>1.212176390199202</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.465909499312074</v>
@@ -46333,7 +46135,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.214400248860346</v>
+        <v>1.213499648368476</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.453318775119163</v>
@@ -46422,7 +46224,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.235754122014439</v>
+        <v>1.23760783667575</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.445839654424816</v>
@@ -46511,7 +46313,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.235207290948101</v>
+        <v>1.234864914526382</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.454872450351751</v>
@@ -46600,7 +46402,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.236020718445444</v>
+        <v>1.233213210118327</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.462486989430444</v>
@@ -46689,7 +46491,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.24483076224628</v>
+        <v>1.24318679509153</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.450978836127262</v>
@@ -46778,7 +46580,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.242139178874953</v>
+        <v>1.24019915065188</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.447570636291806</v>
@@ -46867,7 +46669,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.252717198651255</v>
+        <v>1.249653246276107</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.448454724039222</v>
@@ -46956,7 +46758,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.339754412836271</v>
+        <v>1.335675881096977</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.364322648318466</v>
@@ -47045,7 +46847,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.482190347619056</v>
+        <v>1.479164502955952</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.401846846208329</v>
@@ -47134,7 +46936,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.489653986704413</v>
+        <v>1.485571454400556</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.676633610614035</v>
@@ -47223,7 +47025,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.506963778874396</v>
+        <v>1.493454107566273</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.713247485957739</v>
@@ -47312,7 +47114,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.545600522814619</v>
+        <v>1.523915109438828</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.738584174445815</v>
@@ -47401,7 +47203,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.539469491512956</v>
+        <v>1.516119313139103</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.903057791885415</v>
@@ -47490,7 +47292,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.533835336520453</v>
+        <v>1.509010386804399</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.918128573119157</v>
@@ -47579,7 +47381,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.527418796317626</v>
+        <v>1.50281093926522</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.645683359626078</v>
@@ -47668,7 +47470,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.524457332193647</v>
+        <v>1.503815719207621</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.61034096772677</v>
@@ -47757,7 +47559,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.520465302066257</v>
+        <v>1.492919891505787</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.71525633083769</v>
@@ -47846,7 +47648,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.531724819670192</v>
+        <v>1.50347091617147</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.809869349478264</v>
@@ -47935,7 +47737,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.537276334134009</v>
+        <v>1.507730392333098</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.956464742555275</v>
@@ -48024,7 +47826,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.50760657199953</v>
+        <v>1.485435105099379</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.800758303457233</v>
@@ -48113,7 +47915,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.505493717274402</v>
+        <v>1.487052220506074</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.856948627232379</v>
@@ -48202,7 +48004,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.507637206116461</v>
+        <v>1.489397151497211</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.697659803655271</v>
@@ -48291,7 +48093,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.488693276788153</v>
+        <v>1.470529951405468</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.307190816938171</v>
@@ -48380,7 +48182,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.504119386470858</v>
+        <v>1.48592217415534</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.20686990926302</v>
@@ -48469,7 +48271,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.502039035935069</v>
+        <v>1.483560881158029</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.43836691928382</v>
@@ -48558,7 +48360,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.499734457969943</v>
+        <v>1.487617160816942</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.475678256117753</v>
@@ -48647,7 +48449,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.487808001487798</v>
+        <v>1.475336264763285</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.49070442673351</v>
@@ -48736,7 +48538,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.487456575192287</v>
+        <v>1.47669695430218</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.479992183130243</v>
@@ -48825,7 +48627,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.484955703880093</v>
+        <v>1.477068109246277</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.45509666960113</v>
@@ -48914,7 +48716,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.49429039799219</v>
+        <v>1.486190410829282</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.4207552212199</v>
@@ -49003,7 +48805,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.481952810633764</v>
+        <v>1.477858043365236</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.401936772146815</v>
@@ -49092,7 +48894,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.475792797246395</v>
+        <v>1.48058884446906</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.403665516404168</v>
@@ -49181,7 +48983,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.477699283323474</v>
+        <v>1.479810974927963</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.647277114435175</v>
@@ -49270,7 +49072,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.48279700937937</v>
+        <v>1.476240076405692</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.465629625635899</v>
@@ -49359,7 +49161,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.484631100968084</v>
+        <v>1.486499064500976</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.299357079098203</v>
